--- a/data/income_statement/1digit/total/C_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/C_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>C-Manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>C-Manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>492930300.53886</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>584458336.85104</v>
+        <v>584519236.2071298</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>766721818.5968899</v>
+        <v>769511630.68031</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>832935945.4002399</v>
+        <v>839904602.3659199</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>923032781.7661999</v>
+        <v>932771935.12064</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1047566202.97292</v>
+        <v>1078914712.4187</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1039272584.07472</v>
+        <v>1207354627.97652</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1295617232.22566</v>
+        <v>1327355480.32853</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>1704841795.68566</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2251466957.159481</v>
+        <v>2253131667.396811</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2552986293.08208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2565312452.3416</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3091877083.566</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>360896985.95011</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>442025168.44349</v>
+        <v>442084007.0601</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>574790182.6620901</v>
+        <v>577086416.67276</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>628155779.97623</v>
+        <v>632803938.2932099</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>695842463.41947</v>
+        <v>703389691.6243</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>789514585.26928</v>
+        <v>815432962.5375601</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>799777323.98403</v>
+        <v>917051914.40336</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>983690390.3204399</v>
+        <v>1006226318.05998</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>1277191879.47807</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1610967536.90119</v>
+        <v>1612503587.91467</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1799381146.0401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1809579747.07476</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2216856947.26</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>126606106.78616</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>136733223.68652</v>
+        <v>136734859.07282</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>183632661.1798</v>
+        <v>184061889.26709</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>196619617.13159</v>
+        <v>198911252.41974</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>218079357.49554</v>
+        <v>220166043.53689</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>247901469.42198</v>
+        <v>252949105.62198</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>228726534.0072</v>
+        <v>277186195.06948</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>296133938.70741</v>
+        <v>305156237.85422</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>407477940.45057</v>
+        <v>407477940.4505699</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>611441315.69063</v>
+        <v>611558886.50331</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>722552157.9018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>724553635.08162</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>838850614.187</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>5427207.80259</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>5699944.72103</v>
+        <v>5700370.074209999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>8298974.755</v>
+        <v>8363324.74046</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>8160548.29242</v>
+        <v>8189411.652969999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>9110960.851189999</v>
+        <v>9216199.959450001</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>10150148.28166</v>
+        <v>10532644.25916</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>10768726.08349</v>
+        <v>13116518.50368</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15792903.19781</v>
+        <v>15972924.41433</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>20171975.75702</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>29058104.56766</v>
+        <v>29069192.97883</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>31052989.14018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>31179070.18522</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>36169522.119</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>33216012.34691</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>39446299.16544</v>
+        <v>39467680.62906</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>45499160.42734999</v>
+        <v>45873841.6723</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>52397223.17033</v>
+        <v>53159437.75185001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>57072875.90380999</v>
+        <v>57814409.9947</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>65081642.15218001</v>
+        <v>68136725.9791</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>58582266.91311</v>
+        <v>79338138.57806</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>86922334.90567</v>
+        <v>91071683.86207001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>104826333.49918</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>137901440.84006</v>
+        <v>137914896.13446</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>157771353.04603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>157987146.8592</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>183173237.669</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>4897851.740139999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5502670.16917</v>
+        <v>5515613.88366</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6470665.49537</v>
+        <v>6487195.723629999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7613240.408839999</v>
+        <v>7673319.22875</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7267646.503110001</v>
+        <v>7349622.2197</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>10325020.31967</v>
+        <v>10469494.30312</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9962704.99773</v>
+        <v>10761111.66417</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>14066523.71024</v>
+        <v>14264681.65083</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>16453339.9244</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>27412414.62101</v>
+        <v>27418408.23511</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>26275093.06513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>26439535.17502</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>32388834.288</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>16268888.02402</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>18583173.07397</v>
+        <v>18587546.07798</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>21429347.09913</v>
+        <v>21433415.4427</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>22895165.87113</v>
+        <v>23046295.3179</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>24937014.01513001</v>
+        <v>25377879.34177</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>28157707.07081</v>
+        <v>29607661.66519</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>31103244.2894</v>
+        <v>35089450.5811</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>36623503.03416</v>
+        <v>38316222.82275</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>45641792.82514</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>56588379.41444001</v>
+        <v>56594922.85736</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>70092568.17466</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>70121609.09754001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>81572285.31299999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>12049272.58275</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>15360455.9223</v>
+        <v>15364520.66742</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>17599147.83285001</v>
+        <v>17953230.50597</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>21888816.89036</v>
+        <v>22439823.2052</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>24868215.38557</v>
+        <v>25086908.43323001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>26598914.7617</v>
+        <v>28059570.01079001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>17516317.62598</v>
+        <v>33487576.33279</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>36232308.16127001</v>
+        <v>38490779.38849</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>42731200.74964001</v>
+        <v>42731200.74964</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>53900646.80461</v>
+        <v>53901565.04199</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>61403691.80623999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>61426002.58664002</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>69212118.068</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>459714288.19195</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>545012037.6855999</v>
+        <v>545051555.57807</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>721222658.16954</v>
+        <v>723637789.00801</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>780538722.22991</v>
+        <v>786745164.6140699</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>865959905.8623902</v>
+        <v>874957525.12594</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>982484560.82074</v>
+        <v>1010777986.4396</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>980690317.16161</v>
+        <v>1128016489.39846</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1208694897.31999</v>
+        <v>1236283796.46646</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>1600015462.18648</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2113565516.31942</v>
+        <v>2115216771.26235</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2395214940.03605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2407325305.4824</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>2908703845.897</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>384955995.0747401</v>
+        <v>384955995.07474</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>460936505.60287</v>
+        <v>460969335.23719</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>609103087.9117</v>
+        <v>611239130.59452</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>669494982.51898</v>
+        <v>675139349.65688</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>730516258.1456599</v>
+        <v>738238655.35145</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>831326613.9833101</v>
+        <v>854146177.4213301</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>815383325.2270701</v>
+        <v>939172670.0217999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>999199466.6155701</v>
+        <v>1022935600.30805</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>1323518882.99948</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1729841437.94037</v>
+        <v>1731292079.47907</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2004331017.65832</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2014970959.34513</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2377119810.661</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>307207755.98282</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>374441655.91855</v>
+        <v>374469618.19309</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>498128766.83767</v>
+        <v>500138965.5953001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>551570995.8891499</v>
+        <v>556797270.16151</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>603091756.4391899</v>
+        <v>609191981.29421</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>681539456.92779</v>
+        <v>702164420.46999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>663598999.81062</v>
+        <v>771007887.2043201</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>811831940.8886601</v>
+        <v>832227647.3264</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1083234662.67396</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1430413083.09743</v>
+        <v>1431051885.6962</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1674000501.90207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1680391964.63617</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1943956358.974</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>59837098.60621001</v>
+        <v>59837098.60621</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>66638146.35844</v>
+        <v>66642458.1205</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>85871984.61138001</v>
+        <v>85912710.40405001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>90767547.10168</v>
+        <v>91088801.311</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>95791121.39769</v>
+        <v>97138567.58264999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>112400615.62531</v>
+        <v>114006866.45977</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>113681123.77583</v>
+        <v>125713774.17985</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>138026567.80474</v>
+        <v>141115642.63769</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>183903296.0407</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>221690528.45197</v>
+        <v>222328227.57599</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>239246072.15551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>242516734.35646</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>326911751.1</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>13790434.13602</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>15114639.17069</v>
+        <v>15114706.9019</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>18505560.73102</v>
+        <v>18514210.43757</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>20199826.47629</v>
+        <v>20229375.58895</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>24156859.20717</v>
+        <v>24243844.32233</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>28630204.23002</v>
+        <v>28979774.07342</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>30744353.32921</v>
+        <v>32836737.51147</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>38273357.596</v>
+        <v>38355572.75148</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>41137792.28437001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>58628649.79542001</v>
+        <v>58798423.84479</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>67240694.25372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>68130459.60704</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>78189156.214</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>4120706.34969</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4742064.15519</v>
+        <v>4742552.0217</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>6596775.73163</v>
+        <v>6673244.157600001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>6956613.05186</v>
+        <v>7023902.59542</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>7476521.10161</v>
+        <v>7664262.15226</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>8756337.200189998</v>
+        <v>8995116.41815</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>7358848.31141</v>
+        <v>9614271.12616</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11067600.32617</v>
+        <v>11236737.59248</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>15243132.00045</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>19109176.59555</v>
+        <v>19113542.36209</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>23843749.34702</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>23931800.74546</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>28062544.373</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>74758293.11721</v>
+        <v>74758293.11720999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>84075532.08273</v>
+        <v>84082220.34088001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>112119570.25784</v>
+        <v>112398658.41349</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>111043739.71093</v>
+        <v>111605814.95719</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>135443647.71673</v>
+        <v>136718869.77449</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>151157946.83743</v>
+        <v>156631809.01827</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>165306991.93454</v>
+        <v>188843819.37666</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>209495430.70442</v>
+        <v>213348196.15841</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>276496579.187</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>383724078.37905</v>
+        <v>383924691.78328</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>390883922.37773</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>392354346.13727</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>531584035.236</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>47638491.49053999</v>
+        <v>47638491.49054</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>53880836.80184</v>
+        <v>53892110.69861</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>63891746.97017</v>
+        <v>63991515.69</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>71383086.19488999</v>
+        <v>71808368.55238001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>80705658.35545002</v>
+        <v>81380053.22994</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>90883370.90759</v>
+        <v>93086284.03998001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>93339350.09302001</v>
+        <v>105313242.69019</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>116242567.59993</v>
+        <v>118431115.16591</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>137048480.66591</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>169720448.3289</v>
+        <v>170069802.56369</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>200289878.23283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>201584617.9182</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>230271748.01</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1075707.22801</v>
@@ -1580,193 +1566,218 @@
         <v>1207306.49385</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1478393.00576</v>
+        <v>1479432.39621</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1762701.92282</v>
+        <v>1773410.33241</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2141049.00576</v>
+        <v>2145280.7487</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2264123.90212</v>
+        <v>2299920.91332</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2048032.58596</v>
+        <v>2542061.53642</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2961161.44749</v>
+        <v>3019342.08437</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>3525998.51597</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4585071.87554</v>
+        <v>4587763.4636</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5831812.63632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5840842.366760001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6617682.446</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>23736784.57397</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>27369876.98409</v>
+        <v>27378164.37132</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>32433814.46509</v>
+        <v>32476718.79916</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>36059099.26123</v>
+        <v>36341871.13466</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>40892268.34568</v>
+        <v>41344208.23558</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>45280733.23622999</v>
+        <v>46731100.84143</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>46087187.291</v>
+        <v>52547484.57936999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>57848874.73324001</v>
+        <v>58903597.51242999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>68818346.09126998</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>86251140.48108999</v>
+        <v>86312124.61879002</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>100467408.3764</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>100830210.46099</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>115454947.709</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>22825999.68856</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>25303653.3239</v>
+        <v>25306639.83344</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>29979539.49932</v>
+        <v>30035364.49463</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>33561285.01084001</v>
+        <v>33693087.08531</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>37672341.00401</v>
+        <v>37890564.24566001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>43338513.76924001</v>
+        <v>44055262.28523</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>45204130.21606</v>
+        <v>50223696.57439999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>55432531.41920001</v>
+        <v>56508175.56911</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>64704136.05867</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>78884235.97227</v>
+        <v>79169914.48129998</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>93990657.22010998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>94913565.09045002</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>108199117.855</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>27119801.62667</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>30194695.28089</v>
+        <v>30190109.64227</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>48227823.28767</v>
+        <v>48407142.72349001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>39660653.51603999</v>
+        <v>39797446.40481</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>54737989.36128</v>
+        <v>55338816.54455</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>60274575.92984001</v>
+        <v>63545524.97828999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>71967641.84151998</v>
+        <v>83530576.68647</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>93252863.10449001</v>
+        <v>94917080.99250001</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>139448098.52109</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>214003630.05015</v>
+        <v>213854889.21959</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>190594044.1449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>190769728.21907</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>301312287.226</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>23974565.7493</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>25676529.22308</v>
+        <v>25677148.96915</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>35359258.61862</v>
+        <v>35620815.32923</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>32763841.92438</v>
+        <v>33111831.03645</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>44505820.5884</v>
+        <v>44811614.91307001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>57760405.51291</v>
+        <v>60573187.50215</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>77688061.88189</v>
+        <v>90061230.91629998</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>90659889.46504998</v>
+        <v>92170922.0132</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>135419254.15891</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>380851158.63227</v>
+        <v>381310514.51159</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>242780777.94753</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>243309780.63112</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>371577789.719</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>681990.53429</v>
@@ -1775,46 +1786,51 @@
         <v>782495.2078099999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>780298.04802</v>
+        <v>780300.01653</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1101067.4192</v>
+        <v>1104899.35019</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1392507.92876</v>
+        <v>1396810.77643</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1723658.4842</v>
+        <v>1756313.2721</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1051673.94232</v>
+        <v>1403387.82198</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1620730.10422</v>
+        <v>1685593.88824</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>1826878.18977</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4861616.154610001</v>
+        <v>4883407.02522</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>9218950.152259998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>9263644.88064</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>5024919.211</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>769519.0914500002</v>
+        <v>769519.0914500001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>732631.8856700001</v>
+        <v>732631.88567</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>839377.3291800001</v>
+        <v>839377.32918</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>1106975.23127</v>
@@ -1823,67 +1839,77 @@
         <v>1224623.13978</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1930066.83476</v>
+        <v>2010632.78741</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1185412.41273</v>
+        <v>1383187.10987</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3116221.570689999</v>
+        <v>3125290.27921</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>5005552.58121</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>7668856.13963</v>
+        <v>7680667.0315</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>10039541.97917</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>10040158.66455</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>3509621.642</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2302329.49899</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2411124.27306</v>
+        <v>2411126.67144</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2720775.01547</v>
+        <v>2725787.856929999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>3086901.24454</v>
+        <v>3115216.2786</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2854564.99583</v>
+        <v>2882615.04929</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3515778.36546</v>
+        <v>3642665.23912</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3980109.49439</v>
+        <v>4768071.68215</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>5351992.77513</v>
+        <v>5561590.911230001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>8084636.60216</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>14379061.66141</v>
+        <v>14414781.59306</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>15935928.68891</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16014270.95785</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15487398.022</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>109694.556</v>
@@ -1892,76 +1918,86 @@
         <v>172617.19988</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>366218.61448</v>
+        <v>366548.2838299999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>121496.0827</v>
+        <v>121727.3644</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>122754.33393</v>
+        <v>123086.1931</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>123666.44779</v>
+        <v>125353.96379</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>154995.20217</v>
+        <v>181830.33183</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>166127.61383</v>
+        <v>171345.48166</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>311472.60887</v>
+        <v>311472.6088699999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>362878.92235</v>
+        <v>363157.8163300001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>416939.42052</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>416036.91825</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>601817.491</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>669049.01281</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>603974.7975699999</v>
+        <v>603974.7975700001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>892562.2121199999</v>
+        <v>892626.42577</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>653972.3763300001</v>
+        <v>655440.70257</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>734808.6168499999</v>
+        <v>736211.7581600001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>667461.70892</v>
+        <v>672002.88304</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>708715.32935</v>
+        <v>761232.83502</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1050375.97897</v>
+        <v>1062769.07921</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>871626.93825</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1184571.26272</v>
+        <v>1219838.78636</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1737317.96683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1741772.9638</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2224024.484</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>247588.88984</v>
@@ -1970,76 +2006,86 @@
         <v>273829.584</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>290020.61344</v>
+        <v>290041.58279</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>621950.14988</v>
+        <v>622384.05558</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1141040.69557</v>
+        <v>1141280.79336</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1310363.71314</v>
+        <v>1324540.10691</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>964903.9187600001</v>
+        <v>992414.3171999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1430647.27768</v>
+        <v>1431144.11554</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>744436.8109200001</v>
+        <v>744436.81092</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2513289.49667</v>
+        <v>2513980.91192</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2720648.70988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2714689.31416</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4528264.913</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>15415061.92934</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>16752287.25954</v>
+        <v>16752903.65023</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>24901867.45805</v>
+        <v>25149882.88318</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>21101388.68046</v>
+        <v>21394583.89398</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>31461550.02977</v>
+        <v>31710711.26488001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>41495267.21192</v>
+        <v>43953317.59192</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>62298356.77692999</v>
+        <v>72239146.05876999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>68227678.75457001</v>
+        <v>69089236.63812</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>107080304.54389</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>330948455.03023</v>
+        <v>331258196.37102</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>184198041.11907</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>184502907.0697</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>318645687.431</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>273761.62648</v>
@@ -2048,22 +2094,22 @@
         <v>222456.08055</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>245892.0743600001</v>
+        <v>245902.76333</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>289954.81689</v>
+        <v>293873.6292</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>516395.3715099999</v>
+        <v>518024.99141</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>880849.61405</v>
+        <v>904497.18317</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>954001.3141999999</v>
+        <v>1028966.95087</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1320253.09813</v>
+        <v>1344737.22187</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>1465798.12484</v>
@@ -2072,130 +2118,150 @@
         <v>2549931.4645</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>3239352.47861</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>3239986.94221</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>2133704.834</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>122412.72</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>34004.37565000001</v>
+        <v>34004.37565</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>58790.28507</v>
+        <v>58790.28507000001</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>34827.79384999999</v>
+        <v>34827.79385</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>41485.34468</v>
+        <v>41877.59681</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>123593.66151</v>
+        <v>124955.2505</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>64942.71102999999</v>
+        <v>65008.25757</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>74601.44481999999</v>
+        <v>74609.82928000001</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>129165.48869</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>463192.7797</v>
+        <v>463738.55383</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>123099.76805</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>141720.40439</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>372027.579</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3383157.890099999</v>
+        <v>3383157.8901</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>3691108.55935</v>
+        <v>3691109.516349999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>4263456.968429999</v>
+        <v>4271557.902620001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4645308.12926</v>
+        <v>4661902.73681</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>5016090.13172</v>
+        <v>5036373.349850001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5989699.47116</v>
+        <v>6058909.22419</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6324950.78001</v>
+        <v>7237985.551040001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>8301260.847010001</v>
+        <v>8624604.568840001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>9899382.270310001</v>
+        <v>9899382.27031</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>15919305.72045</v>
+        <v>15962814.95785</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>15150957.66423</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>15234592.51557</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>19050324.112</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>17460519.90636</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>18067784.01498</v>
+        <v>18069709.40165</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>31491862.35646</v>
+        <v>31885429.26292</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>21052190.70377</v>
+        <v>21243111.00034</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>41632924.46923</v>
+        <v>41911237.99854001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>45126638.75155</v>
+        <v>47023072.92793</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>72690849.45401999</v>
+        <v>82640952.68280001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>78924394.89095999</v>
+        <v>80017955.59030999</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>117861289.9645</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>334576818.71377</v>
+        <v>334860200.3641601</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>193521540.79922</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>193941103.3294</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>324483504.208</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>246738.45069</v>
@@ -2204,76 +2270,86 @@
         <v>263071.77507</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>288335.13937</v>
+        <v>288335.16937</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>325849.28104</v>
+        <v>325984.10457</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>326453.79599</v>
+        <v>327490.29787</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>380543.0797000001</v>
+        <v>392084.90375</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>391470.81549</v>
+        <v>455061.9957599999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>498092.34196</v>
+        <v>508629.2858</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>651407.65386</v>
+        <v>651407.6538600001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1022469.72095</v>
+        <v>1022583.75206</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1546830.91941</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1549642.79951</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1357942.749</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1740790.10162</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1389623.77737</v>
+        <v>1390257.92708</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1561771.35601</v>
+        <v>1564471.86186</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1842597.96991</v>
+        <v>1854828.74052</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>2146929.2926</v>
+        <v>2153017.03966</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2063513.75406</v>
+        <v>2122784.70511</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2728512.66649</v>
+        <v>3161756.84541</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3510103.51455</v>
+        <v>3563614.27214</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>3221346.3716</v>
+        <v>3221346.371599999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>5328491.306600001</v>
+        <v>5338502.175620001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>5687970.605969999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>5752579.64941</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>6283726.618</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>149847.01524</v>
@@ -2285,73 +2361,83 @@
         <v>152175.24915</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>440609.93614</v>
+        <v>455742.07472</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>242931.72235</v>
+        <v>245316.11877</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>472065.93036</v>
+        <v>474099.80123</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>200517.38249</v>
+        <v>207295.24369</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>254723.3668</v>
+        <v>254836.83031</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>325407.75153</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>2637844.94245</v>
+        <v>2637860.94073</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2401258.260809999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2390335.53625</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2257311.55</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>13245470.54639</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>13691366.92488</v>
+        <v>13691774.60256</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>26562777.83622</v>
+        <v>26950103.64738</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>15698893.93628</v>
+        <v>15853232.92677</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>34851549.13353</v>
+        <v>35103281.5679</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>38422410.9122</v>
+        <v>40152412.2528</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>64581868.69553</v>
+        <v>73498384.09775999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>69849726.52072001</v>
+        <v>70633883.45229998</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>107557691.96169</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>314363689.92186</v>
+        <v>314625899.92691</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>173541323.31295</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>173857762.23846</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>303357657.224</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>197925.48844</v>
@@ -2360,37 +2446,42 @@
         <v>207889.26479</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>275812.27228</v>
+        <v>275845.74803</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>266123.69096</v>
+        <v>271933.6769</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>750465.96751</v>
+        <v>752519.3781099999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>940013.7994700001</v>
+        <v>977035.43476</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>1022861.40788</v>
+        <v>1081348.68684</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1370025.38262</v>
+        <v>1394641.04742</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>1546636.52325</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>3088299.02332</v>
+        <v>3088546.19347</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2876681.8746</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2879380.633520001</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>2429580.522</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>37724.02367</v>
@@ -2405,613 +2496,691 @@
         <v>34256.01664</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>48711.56766</v>
+        <v>53725.43989</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>60854.94993999999</v>
+        <v>60854.94994</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>58803.09740000001</v>
+        <v>58829.10404000001</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>64966.79010999999</v>
+        <v>65013.94301999999</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>124749.39972</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>372736.14476</v>
+        <v>373654.14423</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>137951.60607</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>160227.44222</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>477791.74</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1842024.28031</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2313894.41241</v>
+        <v>2314777.97169</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2545605.84396</v>
+        <v>2549112.927660001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2443859.8728</v>
+        <v>2447133.46022</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3265882.98959</v>
+        <v>3275888.15634</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2787236.325820001</v>
+        <v>2843800.88034</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3706815.38874</v>
+        <v>4178276.7093</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3376756.9742</v>
+        <v>3597336.75932</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>4434050.302850001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7763287.65383</v>
+        <v>7773153.23114</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>7329524.219409999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>7351175.03003</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8319493.805</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>13637647.33112</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>12284983.17241</v>
+        <v>12287141.19743</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>22757841.16039</v>
+        <v>22783516.79914</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>16014569.16387</v>
+        <v>16176303.76213</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>28644471.33174</v>
+        <v>28997902.86673</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>26759705.60766</v>
+        <v>28023299.59237</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>35755182.6267</v>
+        <v>44147270.96201999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>46936781.30572</v>
+        <v>47552485.78958</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>57984192.54878</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>137333931.07714</v>
+        <v>137367302.52175</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>101893241.25429</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>102127694.51273</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>132233056.538</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>10959122.14278</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>9361749.9276</v>
+        <v>9363907.952620002</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>16101018.47146</v>
+        <v>16121971.75226</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>13009070.30798</v>
+        <v>13162953.25913</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>20720699.26716</v>
+        <v>20979217.08778</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>21175074.49139</v>
+        <v>21806804.4123</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>28243201.76933</v>
+        <v>32470431.91642</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>35068440.53920999</v>
+        <v>35613834.44881</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>44646034.90794</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>99874665.35817999</v>
+        <v>99905784.68493</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>80226653.85763</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>80478594.88559</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>95428614.05400001</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2678525.18834</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2923233.24481</v>
+        <v>2923233.244810001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>6656822.68893</v>
+        <v>6661545.046880001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3005498.85589</v>
+        <v>3013350.503</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>7923772.06458</v>
+        <v>8018685.778950001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5584631.11627</v>
+        <v>6216495.18007</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7511980.857369998</v>
+        <v>11676839.0456</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>11868340.76651</v>
+        <v>11938651.34077</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>13338157.64084</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>37459265.71895999</v>
+        <v>37461517.83682</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>21666587.39666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>21649099.62714</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>36804442.484</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>19996200.13849</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>25518457.31658</v>
+        <v>25510408.01234001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>29337378.38944</v>
+        <v>29359011.99066</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>35357735.57278</v>
+        <v>35489862.67879</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>28966414.14871</v>
+        <v>29241290.59235</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>46148637.08354</v>
+        <v>49072339.96014</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>41209671.64269</v>
+        <v>46803583.95795</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>58051576.37286</v>
+        <v>59517561.62581</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>99021870.16672</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>122944038.89151</v>
+        <v>122937900.84527</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>137960040.03892</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>138010711.00806</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>216173516.199</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3550947.83711</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>3817139.395810001</v>
+        <v>3817402.04489</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5687745.18625</v>
+        <v>5692144.22453</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>5553085.484389999</v>
+        <v>5575277.18996</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>7133792.348709999</v>
+        <v>7215678.09392</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>9306890.929579999</v>
+        <v>9610798.82064</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>8439087.93258</v>
+        <v>10050472.17165</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>11787019.87646</v>
+        <v>12283618.43671</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>12953121.04972</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>16474751.38467</v>
+        <v>16555591.29948</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>17600003.1996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>17730000.71292</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>22881842.466</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>188662.95432</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>237565.07884</v>
+        <v>237610.40295</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>228655.81375</v>
+        <v>228959.8478</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>230863.07913</v>
+        <v>231258.4007</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>206967.42528</v>
+        <v>220420.1337</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>262927.40107</v>
+        <v>263975.0597400001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>273203.20085</v>
+        <v>300621.1326599999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>284904.61645</v>
+        <v>287495.53244</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>423681.1998999999</v>
+        <v>423681.1999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>428389.82311</v>
+        <v>439947.50409</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>526576.78919</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>523072.04431</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1217108.705</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>3362284.88279</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>3579574.31697</v>
+        <v>3579791.64194</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5459089.3725</v>
+        <v>5463184.37673</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>5322222.40526</v>
+        <v>5344018.78926</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6926824.92343</v>
+        <v>6995257.960220001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>9043963.528510001</v>
+        <v>9346823.7609</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>8165884.73173</v>
+        <v>9749851.03899</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>11502115.26001</v>
+        <v>11996122.90427</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>12529439.84982</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>16046361.56156</v>
+        <v>16115643.79539</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>17073426.41041</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>17206928.66861</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>21664733.761</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>5541968.89469</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>4482284.77956</v>
+        <v>4484541.25825</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>13895138.40756</v>
+        <v>13898875.33633</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>7184699.50979</v>
+        <v>7210284.165229999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6601044.076200001</v>
+        <v>6635007.01012</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>10807426.99186</v>
+        <v>10981633.43393</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8413885.8541</v>
+        <v>9288453.555709999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>16609543.29742</v>
+        <v>16846678.12264</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>11301202.64098</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>22340767.43151</v>
+        <v>22477105.79079</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>18586780.60827</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>18716010.21239</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>24062953.439</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2012827.20337</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1284781.14063</v>
+        <v>1284810.65217</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1518216.98152</v>
+        <v>1518395.83623</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1888968.75816</v>
+        <v>1895919.35313</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2056197.31772</v>
+        <v>2057185.15005</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2020939.53705</v>
+        <v>2076483.68381</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>2123535.0394</v>
+        <v>2526441.26217</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2775775.22438</v>
+        <v>2856110.20159</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>3302948.40365</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4221560.1438</v>
+        <v>4235846.9453</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5946033.016559999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5960899.184110001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7177658.259</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>537889.8495</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>510049.0675300001</v>
+        <v>511733.2286500001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1002029.15185</v>
+        <v>1002914.43028</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>812697.1702000001</v>
+        <v>814314.16665</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>631179.1510699999</v>
+        <v>637960.5710399998</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>768762.6437500002</v>
+        <v>789753.0658399999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>809272.9700799999</v>
+        <v>890075.5610099998</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1132782.08709</v>
+        <v>1167479.55849</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>965847.31296</v>
+        <v>965847.3129599999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1702964.34079</v>
+        <v>1704296.08877</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1628981.08677</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1632937.02233</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1823239.236</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>2991251.84182</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2687454.5714</v>
+        <v>2687997.37743</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>11374892.27419</v>
+        <v>11377565.06982</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4483033.58143</v>
+        <v>4500050.645450001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3913667.60741</v>
+        <v>3939861.28903</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>8017724.811060001</v>
+        <v>8115396.684280001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>5481077.844620001</v>
+        <v>5871936.732530001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>12700985.98595</v>
+        <v>12823088.36256</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>7032406.924370001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>16416242.94692</v>
+        <v>16536962.75672</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>11011766.50494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>11122174.00595</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>15062055.944</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>18005179.08091</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>24853311.93283</v>
+        <v>24843268.79897999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>21129985.16813</v>
+        <v>21152280.87886</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>33726121.54738</v>
+        <v>33854855.70352</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>29499162.42122</v>
+        <v>29821961.67615001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>44648101.02126</v>
+        <v>47701505.34685</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>41234873.72117</v>
+        <v>47565602.57389</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>53229052.95189999</v>
+        <v>54954501.93988</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>100673788.57546</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>117078022.84467</v>
+        <v>117016386.35396</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>136973262.63025</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>137024701.50859</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>214992405.226</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>4060811.6787</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4859423.71746</v>
+        <v>4859490.659380001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6148650.483720001</v>
+        <v>6158098.41296</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>6370985.67255</v>
+        <v>6401725.60273</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6521184.63093</v>
+        <v>6577797.05038</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>7705021.20716</v>
+        <v>7987199.13353</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>8214031.542149999</v>
+        <v>9062740.052289998</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>9511328.732180001</v>
+        <v>9732341.439639999</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>13076780.72304</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>19293573.81513</v>
+        <v>19323962.13522</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>18724297.00496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>18821559.476</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>30000319.792</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>13944367.40221</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>19993888.21537</v>
+        <v>19983778.1396</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>14981334.68441</v>
+        <v>14994182.4659</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>27355135.87483</v>
+        <v>27453130.10079</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>22977977.79029</v>
+        <v>23244164.62577</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>36943079.8141</v>
+        <v>39714306.21332001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>33020842.17902</v>
+        <v>38502862.52160001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>43717724.21971999</v>
+        <v>45222160.50024</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>87597007.85242002</v>
+        <v>87597007.85242</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>97784449.02954</v>
+        <v>97692424.21874002</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>118248965.62529</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>118203142.03259</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>184992085.434</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>99756</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>101283</v>
+        <v>101290</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>103168</v>
+        <v>103193</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>102941</v>
+        <v>103026</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>103639</v>
+        <v>103860</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>104705</v>
+        <v>105083</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>106632</v>
+        <v>107794</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>110770</v>
+        <v>111514</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>116584</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>111649</v>
+        <v>122276</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>114566</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>129400</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>139819</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>